--- a/论文用图表/图表数据.xlsx
+++ b/论文用图表/图表数据.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -100,6 +100,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -230,11 +233,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96115712"/>
-        <c:axId val="96125696"/>
+        <c:axId val="259269704"/>
+        <c:axId val="259274184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96115712"/>
+        <c:axId val="259269704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -243,7 +246,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96125696"/>
+        <c:crossAx val="259274184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -251,7 +254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96125696"/>
+        <c:axId val="259274184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -262,7 +265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96115712"/>
+        <c:crossAx val="259269704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -400,11 +403,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96416896"/>
-        <c:axId val="96418432"/>
+        <c:axId val="259321744"/>
+        <c:axId val="259327248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96416896"/>
+        <c:axId val="259321744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96418432"/>
+        <c:crossAx val="259327248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -421,7 +424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96418432"/>
+        <c:axId val="259327248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,7 +435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96416896"/>
+        <c:crossAx val="259321744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -459,15 +462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -488,16 +491,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -520,7 +523,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -562,7 +565,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,7 +600,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
